--- a/P3/Results/Data/Gips/Gypsum 2-12-2024.xlsx
+++ b/P3/Results/Data/Gips/Gypsum 2-12-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mads\OneDrive\Dokumenter\GitHub\Robotteknologi-3.-semester\P3\Results\Data\Gips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D936D7DB-5E6F-403D-83AD-EF123DDAAF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF8FA3D-13C0-40F1-A3D6-FCA1E9E0AF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="124">
   <si>
     <t>Filename</t>
   </si>
@@ -388,6 +388,30 @@
   </si>
   <si>
     <t>Total correct (%)</t>
+  </si>
+  <si>
+    <t>6 g Green light</t>
+  </si>
+  <si>
+    <t>6 g White light</t>
+  </si>
+  <si>
+    <t>12 g Green light</t>
+  </si>
+  <si>
+    <t>12 g White light</t>
+  </si>
+  <si>
+    <t>18 g Green light</t>
+  </si>
+  <si>
+    <t>18 g White light</t>
+  </si>
+  <si>
+    <t>30 g Green light</t>
+  </si>
+  <si>
+    <t>30 g White light</t>
   </si>
 </sst>
 </file>
@@ -440,6 +464,5637 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Success</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> rate at different amounts of gypsum</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Total!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total correct (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Total!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$K$2:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.923076923076934</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.53846153846154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF6C-42D6-8783-F4F343C85B32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1373226592"/>
+        <c:axId val="1373228032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1373226592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Gypsum</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> (g)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1373228032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1373228032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Success</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="da-DK" baseline="0"/>
+                  <a:t> rate (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="da-DK"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1373226592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Average PSNR of colour checker compared to ground-truth colour checker</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Total!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PSNR Enhanced checker</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Total!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12.216428571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.86142857142857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.613999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.157500000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6161-45E5-AC16-B1E33EA81516}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Total!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PSNR Input checker</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.868571428571427</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.504285714285714</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.644</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7837499999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6161-45E5-AC16-B1E33EA81516}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1536048591"/>
+        <c:axId val="1536051951"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>PSNR green light enhanced 6 g</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Total!$C$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>12.291666666666664</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-6161-45E5-AC16-B1E33EA81516}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v>PSNR white light enhanced 6 g</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Total!$C$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>12.16</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-6161-45E5-AC16-B1E33EA81516}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1536048591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Gypsum (g)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1536051951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1536051951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>PSNR compared with ground-truth colour checker</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1536048591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Average MBE compared to ground truth image</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Total!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MBE  Enhanced</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Total!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.0157142857142842</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.1249999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6FA6-4B7A-B0B4-F88468077BEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Total!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MBE Input</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Total!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>-19.657857142857146</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-25.821428571428573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-34.318999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-42.807499999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6FA6-4B7A-B0B4-F88468077BEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1481737423"/>
+        <c:axId val="1481737903"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1481737423"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Gypsum (g)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1481737903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1481737903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>MBE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1481737423"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Average MBE compared to ground truth image for green and white light</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MBE Enhanced</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Total!$A$10:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6 g Green light</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6 g White light</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12 g Green light</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12 g White light</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18 g Green light</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18 g White light</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30 g Green light</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30 g White light</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$E$10:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.1283333333333299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1812499999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0816666666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3737500000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-11.1775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-11.53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8833333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5244-44D9-B35F-D483A6056BA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MBE input</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Total!$A$10:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>6 g Green light</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6 g White light</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12 g Green light</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12 g White light</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18 g Green light</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18 g White light</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30 g Green light</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30 g White light</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$D$10:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-26.351666666666663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-14.637499999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-29.636666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-22.96</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-31.787500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-36.006666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-39.518000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-48.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5244-44D9-B35F-D483A6056BA4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1473570335"/>
+        <c:axId val="1473572735"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1473570335"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Gypsum and light colour</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1473572735"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1473572735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>MBE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1473570335"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="da-DK"/>
+              <a:t>Average AG in different levels of gypsum</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Total!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AG Enhanced</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Total!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$I$2:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20.897857142857141</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.796428571428574</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.224999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.923750000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C3D-434F-924F-FCEF01B52D98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Total!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AG Input</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Total!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$H$2:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.2142857142857135</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.463571428571429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7129999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8512499999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6C3D-434F-924F-FCEF01B52D98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Total!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AG Ground</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Total!$A$2:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Total!$G$2:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6199999999999992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6C3D-434F-924F-FCEF01B52D98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1540933391"/>
+        <c:axId val="1540929071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1540933391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>Gypsum (g)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1540929071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1540929071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="da-DK"/>
+                  <a:t>AG</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-DK"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1540933391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>92891</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>395877</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>544</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF464401-7A48-CF8D-3EB5-7803BD7218CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>607785</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2721</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>317499</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>24492</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8036138D-D18A-6B5E-6C4F-4B93F183D921}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>90714</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>33565</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2FF21D-2989-BB1F-6F85-E86A41186FB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>102508</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>124280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02733B88-F019-040A-AB14-DC469C9B2103}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>562429</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>29937</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>51708</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5B11E95-D6D8-B8C4-7C93-0C38CCD59CB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -727,15 +6382,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5340D8B3-1593-4FA0-A815-DC3516ACE2D5}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="84" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>108</v>
       </c>
@@ -770,7 +6425,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>6</v>
       </c>
@@ -806,7 +6461,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>12</v>
       </c>
@@ -842,7 +6497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>18</v>
       </c>
@@ -878,7 +6533,7 @@
         <v>76.923076923076934</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>30</v>
       </c>
@@ -914,7 +6569,7 @@
         <v>61.53846153846154</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>45</v>
       </c>
@@ -922,7 +6577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>55</v>
       </c>
@@ -930,7 +6585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>65</v>
       </c>
@@ -938,17 +6593,322 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10">
+        <v>10.418333333333335</v>
+      </c>
+      <c r="C10">
+        <v>12.291666666666664</v>
+      </c>
+      <c r="D10">
+        <v>-26.351666666666663</v>
+      </c>
+      <c r="E10">
+        <v>2.1283333333333299</v>
+      </c>
+      <c r="F10">
+        <v>11.536666666666667</v>
+      </c>
+      <c r="G10">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="H10">
+        <v>8.6266666666666669</v>
+      </c>
+      <c r="I10">
+        <v>22.158333333333331</v>
+      </c>
+      <c r="J10">
+        <v>10.709999999999999</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11">
+        <v>11.206250000000001</v>
+      </c>
+      <c r="C11">
+        <v>12.16</v>
+      </c>
+      <c r="D11">
+        <v>-14.637499999999999</v>
+      </c>
+      <c r="E11">
+        <v>7.1812499999999995</v>
+      </c>
+      <c r="F11">
+        <v>14.242500000000001</v>
+      </c>
+      <c r="G11">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="H11">
+        <v>7.9049999999999994</v>
+      </c>
+      <c r="I11">
+        <v>19.952500000000001</v>
+      </c>
+      <c r="J11">
+        <v>9.23</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12">
+        <v>10.356666666666667</v>
+      </c>
+      <c r="C12">
+        <v>12.216666666666667</v>
+      </c>
+      <c r="D12">
+        <v>-29.636666666666667</v>
+      </c>
+      <c r="E12">
+        <v>2.0816666666666666</v>
+      </c>
+      <c r="F12">
+        <v>12.736666666666666</v>
+      </c>
+      <c r="G12">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="H12">
+        <v>6.9516666666666653</v>
+      </c>
+      <c r="I12">
+        <v>20.99666666666667</v>
+      </c>
+      <c r="J12">
+        <v>9.2716666666666665</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13">
+        <v>10.615</v>
+      </c>
+      <c r="C13">
+        <v>13.345000000000001</v>
+      </c>
+      <c r="D13">
+        <v>-22.96</v>
+      </c>
+      <c r="E13">
+        <v>3.3737500000000002</v>
+      </c>
+      <c r="F13">
+        <v>13.841250000000002</v>
+      </c>
+      <c r="G13">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="H13">
+        <v>6.0974999999999993</v>
+      </c>
+      <c r="I13">
+        <v>15.39625</v>
+      </c>
+      <c r="J13">
+        <v>8.1675000000000004</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14">
+        <v>10.227499999999999</v>
+      </c>
+      <c r="C14">
+        <v>15.195</v>
+      </c>
+      <c r="D14">
+        <v>-31.787500000000001</v>
+      </c>
+      <c r="E14">
+        <v>-11.1775</v>
+      </c>
+      <c r="F14">
+        <v>14.6875</v>
+      </c>
+      <c r="G14">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="H14">
+        <v>4.3725000000000005</v>
+      </c>
+      <c r="I14">
+        <v>23.63</v>
+      </c>
+      <c r="J14">
+        <v>7.2274999999999991</v>
+      </c>
+      <c r="K14">
+        <v>66.666666666666657</v>
+      </c>
+      <c r="L14">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15">
+        <v>10.921666666666667</v>
+      </c>
+      <c r="C15">
+        <v>14.226666666666667</v>
+      </c>
+      <c r="D15">
+        <v>-36.006666666666668</v>
+      </c>
+      <c r="E15">
+        <v>-0.215</v>
+      </c>
+      <c r="F15">
+        <v>13.284999999999998</v>
+      </c>
+      <c r="G15">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="H15">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="I15">
+        <v>16.288333333333334</v>
+      </c>
+      <c r="J15">
+        <v>7.6033333333333317</v>
+      </c>
+      <c r="K15">
+        <v>85.714285714285708</v>
+      </c>
+      <c r="L15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16">
+        <v>10.045999999999999</v>
+      </c>
+      <c r="C16">
+        <v>14.282000000000002</v>
+      </c>
+      <c r="D16">
+        <v>-39.518000000000001</v>
+      </c>
+      <c r="E16">
+        <v>-11.53</v>
+      </c>
+      <c r="F16">
+        <v>12.37</v>
+      </c>
+      <c r="G16">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="H16">
+        <v>3.6539999999999999</v>
+      </c>
+      <c r="I16">
+        <v>26.428000000000004</v>
+      </c>
+      <c r="J16">
+        <v>7.7</v>
+      </c>
+      <c r="K16">
+        <v>83.333333333333343</v>
+      </c>
+      <c r="L16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B17">
+        <v>9.3466666666666658</v>
+      </c>
+      <c r="C17">
+        <v>11.283333333333333</v>
+      </c>
+      <c r="D17">
+        <v>-48.29</v>
+      </c>
+      <c r="E17">
+        <v>2.8833333333333333</v>
+      </c>
+      <c r="F17">
+        <v>12.42</v>
+      </c>
+      <c r="G17">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="H17">
+        <v>4.18</v>
+      </c>
+      <c r="I17">
+        <v>33.083333333333336</v>
+      </c>
+      <c r="J17">
+        <v>6.9466666666666663</v>
+      </c>
+      <c r="K17">
+        <v>42.857142857142854</v>
+      </c>
+      <c r="L17">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1487,6 +7447,88 @@
         <v>9.8642857142857139</v>
       </c>
     </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18">
+        <f>SUM(B5:B10)/6</f>
+        <v>10.418333333333335</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:J18" si="1">SUM(C5:C10)/6</f>
+        <v>12.291666666666664</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>-26.351666666666663</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>2.1283333333333334</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>11.536666666666667</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>8.6266666666666669</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>22.158333333333331</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>10.709999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19">
+        <f>SUM(B2:B4,B11:B15)/8</f>
+        <v>11.206250000000001</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:J19" si="2">SUM(C2:C4,C11:C15)/8</f>
+        <v>12.16</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>-14.637499999999999</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>7.1812499999999995</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>14.242500000000001</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>7.9049999999999994</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>19.952500000000001</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>9.23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1494,10 +7536,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:J16"/>
+      <selection activeCell="A18" sqref="A18:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2036,6 +8078,88 @@
         <v>8.6407142857142851</v>
       </c>
     </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18">
+        <f>SUM(B4:B9)/6</f>
+        <v>10.356666666666667</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:J18" si="1">SUM(C4:C9)/6</f>
+        <v>12.216666666666667</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>-29.636666666666667</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>2.0816666666666666</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>12.736666666666666</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>6.9516666666666653</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>20.99666666666667</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>9.2716666666666665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19">
+        <f>SUM(B2:B3,B10:B15)/8</f>
+        <v>10.615</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:J19" si="2">SUM(C2:C3,C10:C15)/8</f>
+        <v>13.345000000000001</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>-22.96</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>3.3737500000000002</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>13.841250000000002</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>6.0974999999999993</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>15.39625</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
+        <v>8.1675000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2043,10 +8167,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="A17:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2472,6 +8596,96 @@
         <v>7.4530000000000003</v>
       </c>
     </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B4,B5,B8,B9)/4</f>
+        <v>10.227499999999999</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:J17" si="1">SUM(C4,C5,C8,C9)/4</f>
+        <v>15.195</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>-31.787500000000001</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>-11.1775</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>14.6875</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>4.3725000000000005</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>23.63</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>7.2274999999999991</v>
+      </c>
+      <c r="K17">
+        <f>4/6*100</f>
+        <v>66.666666666666657</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18">
+        <f>SUM(B2:B3,B10,B12:B14)/6</f>
+        <v>10.921666666666667</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:J18" si="2">SUM(C2:C3,C10,C12:C14)/6</f>
+        <v>14.226666666666667</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>-36.006666666666668</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>-0.215</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>13.284999999999998</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>16.288333333333334</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>7.6033333333333317</v>
+      </c>
+      <c r="K18">
+        <f>6/7*100</f>
+        <v>85.714285714285708</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2479,10 +8693,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="A17:K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2852,6 +9066,96 @@
       <c r="J15">
         <f t="shared" si="0"/>
         <v>7.4174999999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B4:B6,B8:B9)/5</f>
+        <v>10.045999999999999</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:J17" si="1">SUM(C4:C6,C8:C9)/5</f>
+        <v>14.282000000000002</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>-39.518000000000001</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>-11.53</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>12.37</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>3.6539999999999999</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>26.428000000000004</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>7.7</v>
+      </c>
+      <c r="K17">
+        <f>5/6*100</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18">
+        <f>SUM(B10:B11,B14)/3</f>
+        <v>9.3466666666666658</v>
+      </c>
+      <c r="C18">
+        <f t="shared" ref="C18:J18" si="2">SUM(C10:C11,C14)/3</f>
+        <v>11.283333333333333</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>-48.29</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>2.8833333333333333</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>12.42</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>4.18</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>33.083333333333336</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>6.9466666666666663</v>
+      </c>
+      <c r="K18">
+        <f>3/7*100</f>
+        <v>42.857142857142854</v>
       </c>
     </row>
   </sheetData>

--- a/P3/Results/Data/Gips/Gypsum 2-12-2024.xlsx
+++ b/P3/Results/Data/Gips/Gypsum 2-12-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mads\OneDrive\Dokumenter\GitHub\Robotteknologi-3.-semester\P3\Results\Data\Gips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF8FA3D-13C0-40F1-A3D6-FCA1E9E0AF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09580FAE-BEA5-49A6-A052-EC420889F319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1195,7 +1195,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Total!$C$11</c15:sqref>
@@ -1211,7 +1211,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-6161-45E5-AC16-B1E33EA81516}"/>
                   </c:ext>
@@ -6384,8 +6384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5340D8B3-1593-4FA0-A815-DC3516ACE2D5}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="84" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="84" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/P3/Results/Data/Gips/Gypsum 2-12-2024.xlsx
+++ b/P3/Results/Data/Gips/Gypsum 2-12-2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mads\OneDrive\Dokumenter\GitHub\Robotteknologi-3.-semester\P3\Results\Data\Gips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09580FAE-BEA5-49A6-A052-EC420889F319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C44468-0FA4-4051-8F07-28AF9313ED7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1369,7 +1369,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="da-DK"/>
-                  <a:t>PSNR compared with ground-truth colour checker</a:t>
+                  <a:t>PSNR</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6385,7 +6385,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" zoomScale="84" workbookViewId="0">
-      <selection activeCell="W19" sqref="W19"/>
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
